--- a/medicine/Enfance/Tony_DiTerlizzi/Tony_DiTerlizzi.xlsx
+++ b/medicine/Enfance/Tony_DiTerlizzi/Tony_DiTerlizzi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tony DiTerlizzi est un auteur et illustrateur américain de fantasy, né dans le comté de Los Angeles le 6 septembre 1969.
 Il a coécrit Les Chroniques de Spiderwick avec Holly Black, et a supervisé l'adaptation cinématographique de la série en 2008 en tant que producteur exécutif. En 2003, il a remporté un Caldecott Honor (récompense un peu inférieure à la Médaille Caldecott) pour son adaptation du poème The Spider and the Fly de la poétesse anglaise Mary Howitt. Il est également connu comme illustrateur de jeux, en particulier pour la gamme Planescape du jeu de rôle Donjons et Dragons  et pour le jeu de cartes à collectionner Magic : l'assemblée.
@@ -512,10 +524,12 @@
           <t>Enfance et éducation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">DiTerlizzi naît dans une famille d'artistes, à Whittier (Californie) ; il est l'aîné de trois enfants.
-DiTerlizzi grandit dans le sud de la Floride, où il est scolarisé à la South Fork High School. Pendant son enfance, il découvre les œuvres de Norman Rockwell, Arthur Rackham, Theodor Seuss Geisel, Roald Dahl et Jim Henson, qu'il compte parmi ses principales influences artistiques. Il entre ensuite à la Florida School of the Arts et à l'Art Institute of Fort Lauderdale, où il obtient un diplôme de graphisme en 1992[1].
+DiTerlizzi grandit dans le sud de la Floride, où il est scolarisé à la South Fork High School. Pendant son enfance, il découvre les œuvres de Norman Rockwell, Arthur Rackham, Theodor Seuss Geisel, Roald Dahl et Jim Henson, qu'il compte parmi ses principales influences artistiques. Il entre ensuite à la Florida School of the Arts et à l'Art Institute of Fort Lauderdale, où il obtient un diplôme de graphisme en 1992.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Carrière</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Après son école d'art, DiTerlizzi entame une carrière d'illustrateur indépendant, et travaille sur le jeu de rôle Donjons et Dragons de TSR. Il réalise des illustrations dans le domaine des jeux pendant la plus grande partie des années 1990, et travaille sur des gammes ou des jeux tels que Planescape, Changelin : le Songe, et Magic : l'assemblée.
 Après sept ans d'une carrière d'illustrateur dans les domaines des jeux et de la fantasy, DiTerlizzi se lance dans la création de livres illustrés pour la jeunesse. Avec la publication en 2000 de Jimmy Zangwow's Out-of-this-World Moon Pie Adventure, il réalise un rêve d'enfant, celui d'écrire et d'illustrer son propre livre[réf. nécessaire]. L'année suivante, il publie Ted, qui reçoit en 2002 le Zena Sutherland Award. Après Ted vient un livre d'images en fantastique/frissons adapté du poème classique de Mary Howitt The Spider and the Fly, qui entre bientôt dans la liste des best-sellers du New York Times, et qui vaut à DiTerlizzi de remporter en 2003 un Caldecott Honor, qui récompense les meilleurs auteurs venant immédiatement après les tenants de la Médaille Caldecott.
@@ -577,7 +593,9 @@
           <t>Vie privée</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">DiTerlizzi vit et travaille actuellement dans le nord du Massachusetts, en compagnie de sa femme et manager, Angela DiTerlizzi, et de leur fille.
 </t>
@@ -608,7 +626,9 @@
           <t>Œuvre</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Écrits
 Voir aussi l'article détaillé Les Chroniques de Spiderwick.
